--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,20 +444,22 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="21" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="16" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="16" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="26" max="26"/>
+    <col width="24" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,72 +520,82 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>spectraltype_esphs_dr2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>dr2_source_id</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>dr3_source_id</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>source_id_dr3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ra_dr3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>dec_dr3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>phot_g_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>phot_bp_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>phot_rp_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>bp_rp</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>parallax_dr3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>teff_gspphot</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>mass_flame_dr3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>lum_flame_dr3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>radius_flame_dr3</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>spectraltype_esphs_dr3</t>
         </is>
       </c>
     </row>
@@ -625,10 +637,15 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>1462061709995883136</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1462061709996744448</t>
         </is>
@@ -669,10 +686,15 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>1586968533015434624</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>1586968533013974528</t>
         </is>
@@ -705,12 +727,12 @@
       <c r="H4" t="n">
         <v>5143.4501953125</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2595463996992115840</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2595463996992115840</t>
         </is>
@@ -745,10 +767,15 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>2974726131970829952</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2974726136265625088</t>
         </is>
@@ -789,10 +816,15 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>3213958769587525888</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>3213958769589070848</t>
         </is>
@@ -827,10 +859,15 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>3234412606443085824</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>3234412602147418496</t>
         </is>
@@ -874,10 +911,15 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>3575733210781078016</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>3575733210778695808</t>
         </is>
@@ -921,10 +963,15 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>3943232534138172672</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>3943232534137347072</t>
         </is>
@@ -957,12 +1004,12 @@
       <c r="H10" t="n">
         <v>5095.63330078125</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>5426587107149861120</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>5426587107149861120</t>
         </is>
@@ -997,10 +1044,15 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>598180818531935232</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>598180818531355776</t>
         </is>
@@ -1033,12 +1085,12 @@
       <c r="H12" t="n">
         <v>6022</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>6719152945029845376</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
@@ -1071,12 +1123,12 @@
       <c r="H13" t="n">
         <v>5190.33349609375</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
@@ -1111,10 +1163,15 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>776067089642433664</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>776067093937332992</t>
         </is>

--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -442,7 +442,7 @@
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
@@ -654,49 +654,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225.2329125375929</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C3" t="n">
-        <v>45.42768754176895</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D3" t="n">
-        <v>8.464728355407715</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E3" t="n">
-        <v>9.400127410888672</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F3" t="n">
-        <v>7.524870872497559</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G3" t="n">
-        <v>85.37534836100293</v>
+        <v>66.5742243900887</v>
       </c>
       <c r="H3" t="n">
-        <v>4256.30322265625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.07281243801116943</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6930326223373413</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5932</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1586968533013974528</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
@@ -980,152 +969,152 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.6740032632142</v>
+        <v>271.7561269586085</v>
       </c>
       <c r="C10" t="n">
-        <v>-40.466567086598</v>
+        <v>30.56233941836619</v>
       </c>
       <c r="D10" t="n">
-        <v>4.803853511810303</v>
+        <v>4.892927646636963</v>
       </c>
       <c r="E10" t="n">
-        <v>3.975138902664185</v>
+        <v>5.211727142333984</v>
       </c>
       <c r="F10" t="n">
-        <v>3.240525007247925</v>
+        <v>4.491597652435303</v>
       </c>
       <c r="G10" t="n">
-        <v>54.30532208415497</v>
+        <v>63.53576695184549</v>
       </c>
       <c r="H10" t="n">
-        <v>5095.63330078125</v>
+        <v>6009</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>4590758227637479040</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130.6865172420918</v>
+        <v>142.6740032632142</v>
       </c>
       <c r="C11" t="n">
-        <v>9.5539723965289</v>
+        <v>-40.466567086598</v>
       </c>
       <c r="D11" t="n">
-        <v>8.946824073791504</v>
+        <v>4.803853511810303</v>
       </c>
       <c r="E11" t="n">
-        <v>9.887347221374512</v>
+        <v>3.975138902664185</v>
       </c>
       <c r="F11" t="n">
-        <v>7.971009254455566</v>
+        <v>3.240525007247925</v>
       </c>
       <c r="G11" t="n">
-        <v>64.3680016469628</v>
+        <v>54.30532208415497</v>
       </c>
       <c r="H11" t="n">
-        <v>3873</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5095.63330078125</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>286.6054157588619</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C12" t="n">
-        <v>-37.06488085942344</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D12" t="n">
-        <v>4.717123985290527</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E12" t="n">
-        <v>4.816995620727539</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F12" t="n">
-        <v>4.114394664764404</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G12" t="n">
-        <v>57.85828017971518</v>
+        <v>64.3680016469628</v>
       </c>
       <c r="H12" t="n">
-        <v>6022</v>
+        <v>3873</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>598180818531355776</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.6053079615535</v>
+        <v>286.6054157588619</v>
       </c>
       <c r="C13" t="n">
-        <v>-37.06450354954132</v>
+        <v>-37.06488085942344</v>
       </c>
       <c r="D13" t="n">
-        <v>4.760257244110107</v>
+        <v>4.717123985290527</v>
       </c>
       <c r="E13" t="n">
-        <v>4.791435241699219</v>
+        <v>4.816995620727539</v>
       </c>
       <c r="F13" t="n">
-        <v>3.94169807434082</v>
+        <v>4.114394664764404</v>
       </c>
       <c r="G13" t="n">
-        <v>58.69555998807621</v>
+        <v>57.85828017971518</v>
       </c>
       <c r="H13" t="n">
-        <v>5190.33349609375</v>
+        <v>6022</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1137,43 +1126,38 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161.3393177357646</v>
+        <v>286.6053079615535</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51241559503183</v>
+        <v>-37.06450354954132</v>
       </c>
       <c r="D14" t="n">
-        <v>8.667779922485352</v>
+        <v>4.760257244110107</v>
       </c>
       <c r="E14" t="n">
-        <v>9.488222122192383</v>
+        <v>4.791435241699219</v>
       </c>
       <c r="F14" t="n">
-        <v>7.58256721496582</v>
+        <v>3.94169807434082</v>
       </c>
       <c r="G14" t="n">
-        <v>72.98709001875206</v>
+        <v>58.69555998807621</v>
       </c>
       <c r="H14" t="n">
-        <v>4100</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5190.33349609375</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>776067093937332992</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>

--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,21 +440,21 @@
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
     <col width="21" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="22" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
     <col width="14" customWidth="1" min="23" max="23"/>
     <col width="16" customWidth="1" min="24" max="24"/>
     <col width="15" customWidth="1" min="25" max="25"/>
@@ -623,17 +623,25 @@
       <c r="G2" t="n">
         <v>55.12479618884052</v>
       </c>
-      <c r="H2" t="n">
-        <v>4109</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7143532633781433</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3905.417</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.6421308</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.10700539</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.71435326</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -654,301 +662,325 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>1552921051659352960</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.2576611101138</v>
+        <v>199.941227089661</v>
       </c>
       <c r="C3" t="n">
-        <v>32.90073932392183</v>
+        <v>47.77792679548974</v>
       </c>
       <c r="D3" t="n">
-        <v>5.116928577423096</v>
+        <v>7.948930263519287</v>
       </c>
       <c r="E3" t="n">
-        <v>5.428450107574463</v>
+        <v>8.774880409240723</v>
       </c>
       <c r="F3" t="n">
-        <v>4.655242443084717</v>
+        <v>6.670772075653076</v>
       </c>
       <c r="G3" t="n">
-        <v>66.5742243900887</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5932</v>
+        <v>109.9837414044669</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4051.515</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.06580374</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.52064663</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>1552921051659352960</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2043885295914530944</t>
+          <t>1552921055949679616</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.6440634509766</v>
+        <v>225.2329125375929</v>
       </c>
       <c r="C4" t="n">
-        <v>-16.74185644464832</v>
+        <v>45.42768754176895</v>
       </c>
       <c r="D4" t="n">
-        <v>6.198555946350098</v>
+        <v>8.464728355407715</v>
       </c>
       <c r="E4" t="n">
-        <v>6.208871841430664</v>
+        <v>9.400127410888672</v>
       </c>
       <c r="F4" t="n">
-        <v>5.265100002288818</v>
+        <v>7.524870872497559</v>
       </c>
       <c r="G4" t="n">
-        <v>51.50789426625737</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5143.4501953125</v>
+        <v>85.37534836100293</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3601.6807</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.07281244</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.6930326</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1586968533013974528</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.61785590280779</v>
+        <v>284.2572876496914</v>
       </c>
       <c r="C5" t="n">
-        <v>-21.25784077680808</v>
+        <v>32.90057478653039</v>
       </c>
       <c r="D5" t="n">
-        <v>7.750740051269531</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.57557487487793</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.656546115875244</v>
+        <v>7.467142105102539</v>
       </c>
       <c r="G5" t="n">
-        <v>119.3398737310191</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4063.596435546875</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>67.78145508350882</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2974726136265625088</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.80577003837008</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.073222913358394</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D6" t="n">
-        <v>7.478399753570557</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E6" t="n">
-        <v>8.042928695678711</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F6" t="n">
-        <v>6.742774486541748</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G6" t="n">
-        <v>63.65137588808516</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4976</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.748258650302887</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>66.5742243900887</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5932.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.4960319</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.1580325</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.65646942221296</v>
+        <v>336.6440634509766</v>
       </c>
       <c r="C7" t="n">
-        <v>2.602451244119687</v>
+        <v>-16.74185644464832</v>
       </c>
       <c r="D7" t="n">
-        <v>7.53508996963501</v>
+        <v>6.198555946350098</v>
       </c>
       <c r="E7" t="n">
-        <v>8.008501052856445</v>
+        <v>6.208871841430664</v>
       </c>
       <c r="F7" t="n">
-        <v>6.799147129058838</v>
+        <v>5.265100002288818</v>
       </c>
       <c r="G7" t="n">
-        <v>50.39430355852318</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4837</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>51.50789426625737</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5143.45</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3234412602147418496</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1856175191175</v>
+        <v>75.61785590280779</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.44820514671702</v>
+        <v>-21.25784077680808</v>
       </c>
       <c r="D8" t="n">
-        <v>5.328901290893555</v>
+        <v>7.750740051269531</v>
       </c>
       <c r="E8" t="n">
-        <v>5.751168727874756</v>
+        <v>8.57557487487793</v>
       </c>
       <c r="F8" t="n">
-        <v>4.824667453765869</v>
+        <v>6.656546115875244</v>
       </c>
       <c r="G8" t="n">
-        <v>78.75648094040741</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5518.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8789317011833191</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.028767466545105</v>
+        <v>119.3398737310191</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4063.5964</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.06656814</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.52055275</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3575733210778695808</t>
+          <t>2974726136265625088</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.5638957330539</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C9" t="n">
-        <v>20.72965678223564</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D9" t="n">
-        <v>8.969438552856445</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E9" t="n">
-        <v>9.729983329772949</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F9" t="n">
-        <v>8.007077217102051</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G9" t="n">
-        <v>50.90347875548716</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4122.9033203125</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6824297308921814</v>
+        <v>63.65137588808516</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -957,117 +989,178 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3943232534137347072</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4590758227640885248</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>271.7561269586085</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C10" t="n">
-        <v>30.56233941836619</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D10" t="n">
-        <v>4.892927646636963</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E10" t="n">
-        <v>5.211727142333984</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F10" t="n">
-        <v>4.491597652435303</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G10" t="n">
-        <v>63.53576695184549</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6009</v>
+        <v>50.39430355852318</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4837.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4590758227640885248</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4590758227637479040</t>
+          <t>3234412602147418496</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.6740032632142</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C11" t="n">
-        <v>-40.466567086598</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D11" t="n">
-        <v>4.803853511810303</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E11" t="n">
-        <v>3.975138902664185</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F11" t="n">
-        <v>3.240525007247925</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G11" t="n">
-        <v>54.30532208415497</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5095.63330078125</v>
+        <v>78.75648094040741</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3575733210778695808</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.6865172420918</v>
+        <v>196.5638957330539</v>
       </c>
       <c r="C12" t="n">
-        <v>9.5539723965289</v>
+        <v>20.72965678223564</v>
       </c>
       <c r="D12" t="n">
-        <v>8.946824073791504</v>
+        <v>8.969438552856445</v>
       </c>
       <c r="E12" t="n">
-        <v>9.887347221374512</v>
+        <v>9.729983329772949</v>
       </c>
       <c r="F12" t="n">
-        <v>7.971009254455566</v>
+        <v>8.007077217102051</v>
       </c>
       <c r="G12" t="n">
-        <v>64.3680016469628</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3873</v>
+        <v>50.90347875548716</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1076,88 +1169,507 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>3943232534137347072</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>4590758227637479040</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.6054157588619</v>
+        <v>271.7558821637892</v>
       </c>
       <c r="C13" t="n">
-        <v>-37.06488085942344</v>
+        <v>30.56263953176465</v>
       </c>
       <c r="D13" t="n">
-        <v>4.717123985290527</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.816995620727539</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.114394664764404</v>
+        <v>8.130936622619629</v>
       </c>
       <c r="G13" t="n">
-        <v>57.85828017971518</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6022</v>
+        <v>53.97691200055367</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>4590758227637479040</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>4590758227637479040</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>4590758227640885248</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>271.7561269586085</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.56233941836619</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.892927646636963</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.211727142333984</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.491597652435303</v>
+      </c>
+      <c r="G14" t="n">
+        <v>63.53576695184549</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6009.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2.0126045</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.3089633</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4590758227640885248</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>142.6740032632142</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-40.466567086598</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.803853511810303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.975138902664185</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.240525007247925</v>
+      </c>
+      <c r="G15" t="n">
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G16" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>5853498713190524032</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G17" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>217.3923214720088</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-62.67607511676666</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8.984748840332031</v>
+      </c>
+      <c r="S17" t="n">
+        <v>11.37311553955078</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7.568535327911377</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3.804580211639404</v>
+      </c>
+      <c r="V17" t="n">
+        <v>768.0665391873573</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2829.3542</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0.0015221541</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0.16237111</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>130.6865172420918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.5539723965289</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.946824073791504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.887347221374512</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.971009254455566</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64.3680016469628</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3873.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>598180818531355776</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6719152945029845376</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>286.6054157588619</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-37.06488085942344</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.717123985290527</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.816995620727539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.114394664764404</v>
+      </c>
+      <c r="G19" t="n">
+        <v>57.85828017971518</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>6022.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2.852196</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.5515323</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>6719152945029845376</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>6719152945032456832</t>
         </is>
       </c>
-      <c r="B14" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6719152945032456832</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>286.6053079615535</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>-37.06450354954132</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>4.760257244110107</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E20" t="n">
         <v>4.791435241699219</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F20" t="n">
         <v>3.94169807434082</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G20" t="n">
         <v>58.69555998807621</v>
       </c>
-      <c r="H14" t="n">
-        <v>5190.33349609375</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5190.3335</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>756853643637996160</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>169.543435666958</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.5264998339419</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.594314098358154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.022503852844238</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.809747219085693</v>
+      </c>
+      <c r="G21" t="n">
+        <v>114.4866699181447</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3821.5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.5513859</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2.8414814</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>756853643637996160</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>756853643638639104</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>776067089642433664</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>161.3393177357646</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38.51241559503183</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.667779922485352</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.488222122192383</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.58256721496582</v>
+      </c>
+      <c r="G22" t="n">
+        <v>72.98709001875206</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4100.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.07476281</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.5419107</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>776067089642433664</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>776067093937332992</t>
         </is>
       </c>
     </row>

--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,902 +602,1011 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336.6440634509766</v>
+        <v>223.4609059782229</v>
       </c>
       <c r="C2" t="n">
-        <v>-16.74185644464832</v>
+        <v>23.5562283672217</v>
       </c>
       <c r="D2" t="n">
-        <v>6.198555946350098</v>
+        <v>10.6834602355957</v>
       </c>
       <c r="E2" t="n">
-        <v>6.208871841430664</v>
+        <v>11.97817039489746</v>
       </c>
       <c r="F2" t="n">
-        <v>5.265100002288818</v>
+        <v>9.218082427978516</v>
       </c>
       <c r="G2" t="n">
-        <v>51.50789426625737</v>
+        <v>87.93503399810947</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5143.45</t>
+          <t>3692.9502</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
-        </is>
+          <t>1266092694562422912</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1266092694562422912</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>223.4610677954632</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23.55624459918502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.75485038757324</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.95096206665039</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9.258833885192871</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.69212818145752</v>
+      </c>
+      <c r="V2" t="n">
+        <v>86.27588304488538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>2571309955621962240</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.61785590280779</v>
+        <v>30.61730570487827</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.25784077680808</v>
+        <v>10.58108398239842</v>
       </c>
       <c r="D3" t="n">
-        <v>7.750740051269531</v>
+        <v>11.86524200439453</v>
       </c>
       <c r="E3" t="n">
-        <v>8.57557487487793</v>
+        <v>13.11831760406494</v>
       </c>
       <c r="F3" t="n">
-        <v>6.656546115875244</v>
+        <v>10.18556976318359</v>
       </c>
       <c r="G3" t="n">
-        <v>119.3398737310191</v>
+        <v>70.42564103007484</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4063.5964</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.06656814</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.52055275</t>
+          <t>3766.285</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>2571309955621962240</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2974726136265625088</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2974726136265625088</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>75.61776596344842</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-21.25763920201128</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9.636775970458984</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.56764030456543</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.678545475006104</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.889094829559326</v>
-      </c>
-      <c r="V3" t="n">
-        <v>118.8249653646052</v>
+          <t>2571309959912985472</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.35069832372695</v>
+        <v>336.6440634509766</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.817013778345798</v>
+        <v>-16.74185644464832</v>
       </c>
       <c r="D4" t="n">
-        <v>9.580621719360352</v>
+        <v>6.198555946350098</v>
       </c>
       <c r="E4" t="n">
-        <v>11.37590312957764</v>
+        <v>6.208871841430664</v>
       </c>
       <c r="F4" t="n">
-        <v>8.275747299194336</v>
+        <v>5.265100002288818</v>
       </c>
       <c r="G4" t="n">
-        <v>242.9658901759567</v>
+        <v>51.50789426625737</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4293.077</t>
+          <t>5143.45</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.80577003837008</v>
+        <v>12.63951087305109</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.073222913358394</v>
+        <v>24.81657960965835</v>
       </c>
       <c r="D5" t="n">
-        <v>7.478399753570557</v>
+        <v>11.21674060821533</v>
       </c>
       <c r="E5" t="n">
-        <v>8.042928695678711</v>
+        <v>12.44557857513428</v>
       </c>
       <c r="F5" t="n">
-        <v>6.742774486541748</v>
+        <v>9.676067352294922</v>
       </c>
       <c r="G5" t="n">
-        <v>63.65137588808516</v>
+        <v>66.80842144530081</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4587.147</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.22333561</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.74825865</t>
+          <t>3709.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>2805045756652783104</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.80542734722003</v>
+        <v>76.70643131144465</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.072972836242535</v>
+        <v>-21.58462820524855</v>
       </c>
       <c r="D6" t="n">
-        <v>9.889883041381836</v>
+        <v>10.91122913360596</v>
       </c>
       <c r="E6" t="n">
-        <v>10.13441944122314</v>
+        <v>11.46880340576172</v>
       </c>
       <c r="F6" t="n">
-        <v>8.577648162841797</v>
+        <v>8.725362777709961</v>
       </c>
       <c r="G6" t="n">
-        <v>57.97898590206367</v>
+        <v>53.33001646247414</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5002.25</t>
+          <t>4425.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>76.70617658945091</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-21.58452832997181</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10.32899570465088</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11.43883037567139</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.714428901672363</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.724401473999023</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50.52342078142602</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.65646942221296</v>
+        <v>76.70617422420692</v>
       </c>
       <c r="C7" t="n">
-        <v>2.602451244119687</v>
+        <v>-21.58451970252926</v>
       </c>
       <c r="D7" t="n">
-        <v>7.53508996963501</v>
+        <v>10.28313255310059</v>
       </c>
       <c r="E7" t="n">
-        <v>8.008501052856445</v>
+        <v>11.44809150695801</v>
       </c>
       <c r="F7" t="n">
-        <v>6.799147129058838</v>
+        <v>8.72900390625</v>
       </c>
       <c r="G7" t="n">
-        <v>50.39430355852318</v>
+        <v>50.64880761323369</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4837.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.803856</t>
+          <t>3493.5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.287645</t>
+          <t>0.0532422</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.6787785</t>
+          <t>0.6298819</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3234412602147418496</t>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>76.70617658945091</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-21.58452832997181</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.32899570465088</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11.43883037567139</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.714428901672363</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.724401473999023</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50.52342078142602</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1856175191175</v>
+        <v>75.61785590280779</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.44820514671702</v>
+        <v>-21.25784077680808</v>
       </c>
       <c r="D8" t="n">
-        <v>5.328901290893555</v>
+        <v>7.750740051269531</v>
       </c>
       <c r="E8" t="n">
-        <v>5.751168727874756</v>
+        <v>8.57557487487793</v>
       </c>
       <c r="F8" t="n">
-        <v>4.824667453765869</v>
+        <v>6.656546115875244</v>
       </c>
       <c r="G8" t="n">
-        <v>78.75648094040741</v>
+        <v>119.3398737310191</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5510.1235</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.8837685</t>
+          <t>4063.5964</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.859334</t>
+          <t>0.06656814</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0129887</t>
+          <t>0.52055275</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3575733210778695808</t>
-        </is>
+          <t>2974726136265625088</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2974726136265625088</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>75.61776596344842</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-21.25763920201128</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9.636775970458984</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8.56764030456543</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.678545475006104</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.889094829559326</v>
+      </c>
+      <c r="V8" t="n">
+        <v>118.8249653646052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>3080863574242572032</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.1066116242112</v>
+        <v>117.4609446750613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.583451683457159</v>
+        <v>-3.288988451148158</v>
       </c>
       <c r="D9" t="n">
-        <v>9.402151107788086</v>
+        <v>11.92208862304688</v>
       </c>
       <c r="E9" t="n">
-        <v>10.21803951263428</v>
+        <v>13.47998046875</v>
       </c>
       <c r="F9" t="n">
-        <v>8.19732666015625</v>
+        <v>10.62602233886719</v>
       </c>
       <c r="G9" t="n">
-        <v>57.29620491552411</v>
+        <v>58.78391303369008</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4051.515</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.0635869</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.51180154</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>4492.24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>3080863574242572032</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3699797155055781760</t>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>117.461460156959</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-3.288958911877469</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11.55102348327637</v>
+      </c>
+      <c r="S9" t="n">
+        <v>13.15095329284668</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10.24977111816406</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.901182174682617</v>
+      </c>
+      <c r="V9" t="n">
+        <v>58.68278747114979</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3080863574244739712</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196.5638957330539</v>
+        <v>117.4614843657394</v>
       </c>
       <c r="C10" t="n">
-        <v>20.72965678223564</v>
+        <v>-3.288949903071281</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969438552856445</v>
+        <v>11.55008602142334</v>
       </c>
       <c r="E10" t="n">
-        <v>9.729983329772949</v>
+        <v>13.18886947631836</v>
       </c>
       <c r="F10" t="n">
-        <v>8.007077217102051</v>
+        <v>10.28241539001465</v>
       </c>
       <c r="G10" t="n">
-        <v>50.90347875548716</v>
+        <v>58.80841825192258</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4006.3718</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.64154863</t>
+          <t>3162.7915</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.1079833</t>
+          <t>0.016620172</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.68242973</t>
+          <t>0.47704306</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3080863574244739712</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3943232534137347072</t>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>117.461460156959</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-3.288958911877469</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11.55102348327637</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13.15095329284668</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10.24977111816406</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.901182174682617</v>
+      </c>
+      <c r="V10" t="n">
+        <v>58.68278747114979</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258.9581327576004</v>
+        <v>97.35069832372695</v>
       </c>
       <c r="C11" t="n">
-        <v>19.00008178285036</v>
+        <v>-2.817013778345798</v>
       </c>
       <c r="D11" t="n">
-        <v>9.643589019775391</v>
+        <v>9.580621719360352</v>
       </c>
       <c r="E11" t="n">
-        <v>10.62963771820068</v>
+        <v>11.37590312957764</v>
       </c>
       <c r="F11" t="n">
-        <v>8.598058700561523</v>
+        <v>8.275747299194336</v>
       </c>
       <c r="G11" t="n">
-        <v>73.10602141993046</v>
+        <v>242.9658901759567</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3671.2068</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.03414832</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0.4769425</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>unknown</t>
+          <t>4293.077</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4548562269906020352</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5091025641634025984</t>
+          <t>3165346538729784192</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.32896483206782</v>
+        <v>113.7343779218443</v>
       </c>
       <c r="C12" t="n">
-        <v>-20.41643992803905</v>
+        <v>14.7646007315158</v>
       </c>
       <c r="D12" t="n">
-        <v>8.992939949035645</v>
+        <v>10.39511871337891</v>
       </c>
       <c r="E12" t="n">
-        <v>9.285513877868652</v>
+        <v>11.50105285644531</v>
       </c>
       <c r="F12" t="n">
-        <v>8.515896797180176</v>
+        <v>9.056132316589355</v>
       </c>
       <c r="G12" t="n">
-        <v>51.14039636287707</v>
+        <v>61.79512713964984</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6084.6665</t>
+          <t>3917.3333</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5091025641634025984</t>
+          <t>3165346538729784192</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5091025641635400576</t>
+          <t>3165346543026736512</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.6736805260494</v>
+        <v>71.71513779929116</v>
       </c>
       <c r="C13" t="n">
-        <v>-40.46642826305888</v>
+        <v>-11.28015204302924</v>
       </c>
       <c r="D13" t="n">
-        <v>3.674772262573242</v>
+        <v>11.38980102539062</v>
       </c>
       <c r="E13" t="n">
-        <v>3.775615692138672</v>
+        <v>12.72490119934082</v>
       </c>
       <c r="F13" t="n">
-        <v>3.180518627166748</v>
+        <v>10.07029438018799</v>
       </c>
       <c r="G13" t="n">
-        <v>54.60594737051395</v>
+        <v>52.69274123075154</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6812.0</t>
+          <t>3278.751</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.295994</t>
+          <t>0.019089546</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.0679383</t>
+          <t>0.41748595</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3181197137010596480</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.6740032632142</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C14" t="n">
-        <v>-40.466567086598</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D14" t="n">
-        <v>4.803853511810303</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E14" t="n">
-        <v>3.975138902664185</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F14" t="n">
-        <v>3.240525007247925</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G14" t="n">
-        <v>54.30532208415497</v>
+        <v>63.65137588808516</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.2899119129692</v>
+        <v>79.80542734722003</v>
       </c>
       <c r="C15" t="n">
-        <v>-36.89640412005505</v>
+        <v>-3.072972836242535</v>
       </c>
       <c r="D15" t="n">
-        <v>9.25908374786377</v>
+        <v>9.889883041381836</v>
       </c>
       <c r="E15" t="n">
-        <v>10.21074485778809</v>
+        <v>10.13441944122314</v>
       </c>
       <c r="F15" t="n">
-        <v>8.162381172180176</v>
+        <v>8.577648162841797</v>
       </c>
       <c r="G15" t="n">
-        <v>63.97614315446016</v>
+        <v>57.97898590206367</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3795.6047</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.06885558</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.6068205</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>5002.25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5443030200460964480</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.3934657426036</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C16" t="n">
-        <v>-62.67618210292382</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D16" t="n">
-        <v>8.953612327575684</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E16" t="n">
-        <v>11.38292598724365</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F16" t="n">
-        <v>7.586430072784424</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G16" t="n">
-        <v>768.5003653333918</v>
+        <v>50.39430355852318</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3295.5</t>
+          <t>4837.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5853498713190524032</t>
+          <t>3234412602147418496</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3934657426036</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C17" t="n">
-        <v>-62.67618210292382</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D17" t="n">
-        <v>8.953612327575684</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E17" t="n">
-        <v>11.38292598724365</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F17" t="n">
-        <v>7.586430072784424</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G17" t="n">
-        <v>768.5003653333918</v>
+        <v>78.75648094040741</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3295.5</t>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5853498713190525696</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>5853498713190525696</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>217.3923214720088</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-62.67607511676666</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8.984748840332031</v>
-      </c>
-      <c r="S17" t="n">
-        <v>11.37311553955078</v>
-      </c>
-      <c r="T17" t="n">
-        <v>7.568535327911377</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3.804580211639404</v>
-      </c>
-      <c r="V17" t="n">
-        <v>768.0665391873573</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>2829.3542</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0.0015221541</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.16237111</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>3575733210778695808</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263.8072213801677</v>
+        <v>207.2548048476725</v>
       </c>
       <c r="C18" t="n">
-        <v>-48.6788427227423</v>
+        <v>2.789946080324413</v>
       </c>
       <c r="D18" t="n">
-        <v>9.283218383789062</v>
+        <v>10.82516193389893</v>
       </c>
       <c r="E18" t="n">
-        <v>10.49626731872559</v>
+        <v>11.44756698608398</v>
       </c>
       <c r="F18" t="n">
-        <v>8.218951225280762</v>
+        <v>9.216026306152344</v>
       </c>
       <c r="G18" t="n">
-        <v>103.3499876158996</v>
+        <v>55.7827330235782</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3509.118</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.029565195</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0.54734063</t>
+          <t>4366.5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1507,52 +1616,73 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5946986063686470784</t>
+          <t>3665076433275547904</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3665076433275547904</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>207.2548230865133</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.789899161594863</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10.89292621612549</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11.41617774963379</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9.150069236755371</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.266108512878418</v>
+      </c>
+      <c r="V18" t="n">
+        <v>54.93039476348942</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.2610245058087</v>
+        <v>207.2548048476725</v>
       </c>
       <c r="C19" t="n">
-        <v>-44.32325190884921</v>
+        <v>2.789946080324413</v>
       </c>
       <c r="D19" t="n">
-        <v>9.570246696472168</v>
+        <v>10.82516193389893</v>
       </c>
       <c r="E19" t="n">
-        <v>11.22336196899414</v>
+        <v>11.44756698608398</v>
       </c>
       <c r="F19" t="n">
-        <v>8.336091995239258</v>
+        <v>9.216026306152344</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7031040708767</v>
+        <v>55.7827330235782</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3155.8037</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.0082382895</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0.30361992</t>
+          <t>4366.5</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1562,52 +1692,52 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5955305209177869952</t>
+          <t>3665076433275739648</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>3699797150759489792</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.676043587246</v>
+        <v>185.1066116242112</v>
       </c>
       <c r="C20" t="n">
-        <v>7.864454757536701</v>
+        <v>0.583451683457159</v>
       </c>
       <c r="D20" t="n">
-        <v>9.069389343261719</v>
+        <v>9.402151107788086</v>
       </c>
       <c r="E20" t="n">
-        <v>9.312304496765137</v>
+        <v>10.21803951263428</v>
       </c>
       <c r="F20" t="n">
-        <v>7.628968715667725</v>
+        <v>8.19732666015625</v>
       </c>
       <c r="G20" t="n">
-        <v>56.18901160389031</v>
+        <v>57.29620491552411</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3689.1877</t>
+          <t>4051.515</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.09200179</t>
+          <t>0.0635869</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.74259245</t>
+          <t>0.51180154</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1617,199 +1747,154 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>3699797150759489792</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3699797155055781760</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3699797155055781760</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>132.6760249411678</v>
+        <v>185.1066805650071</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.864124459558615</v>
+        <v>0.5836851086339531</v>
       </c>
       <c r="R20" t="n">
-        <v>9.315723419189453</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9.586329460144043</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7.633227348327637</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.953102111816406</v>
+        <v>10.83960628509521</v>
       </c>
       <c r="V20" t="n">
-        <v>56.31319919991991</v>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+        <v>56.81213571717324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3943232534137347072</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.6760398348613</v>
+        <v>196.5637452871749</v>
       </c>
       <c r="C21" t="n">
-        <v>7.864122327596015</v>
+        <v>20.72924572096149</v>
       </c>
       <c r="D21" t="n">
-        <v>9.30428409576416</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.669934272766113</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.656069755554199</v>
+        <v>11.00532150268555</v>
       </c>
       <c r="G21" t="n">
-        <v>56.11548072384026</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+        <v>50.73286989483509</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3943232534137347072</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>132.6760249411678</v>
+        <v>196.563887451697</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.864124459558615</v>
+        <v>20.72966994150692</v>
       </c>
       <c r="R21" t="n">
-        <v>9.315723419189453</v>
+        <v>8.973732948303223</v>
       </c>
       <c r="S21" t="n">
-        <v>9.586329460144043</v>
+        <v>9.684998512268066</v>
       </c>
       <c r="T21" t="n">
-        <v>7.633227348327637</v>
+        <v>8.016292572021484</v>
       </c>
       <c r="U21" t="n">
-        <v>1.953102111816406</v>
+        <v>1.668705940246582</v>
       </c>
       <c r="V21" t="n">
-        <v>56.31319919991991</v>
+        <v>50.80727454464759</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>3968.184</t>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0.07416474</t>
+          <t>0.1079833</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0.6615956</t>
+          <t>0.68242973</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.6865172420918</v>
+        <v>196.5638957330539</v>
       </c>
       <c r="C22" t="n">
-        <v>9.5539723965289</v>
+        <v>20.72965678223564</v>
       </c>
       <c r="D22" t="n">
-        <v>8.946824073791504</v>
+        <v>8.969438552856445</v>
       </c>
       <c r="E22" t="n">
-        <v>9.887347221374512</v>
+        <v>9.729983329772949</v>
       </c>
       <c r="F22" t="n">
-        <v>7.971009254455566</v>
+        <v>8.007077217102051</v>
       </c>
       <c r="G22" t="n">
-        <v>64.3680016469628</v>
+        <v>50.90347875548716</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3873.0</t>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.3356494</t>
+          <t>0.1079833</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.2673832</t>
+          <t>0.68242973</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1819,623 +1904,2487 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>196.563887451697</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20.72966994150692</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8.973732948303223</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9.684998512268066</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.016292572021484</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.668705940246582</v>
+      </c>
+      <c r="V22" t="n">
+        <v>50.80727454464759</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>4348683734720633984</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>134.269375638669</v>
+        <v>242.2440860797498</v>
       </c>
       <c r="C23" t="n">
-        <v>11.64555935981716</v>
+        <v>-8.011861586877151</v>
       </c>
       <c r="D23" t="n">
-        <v>9.820775985717773</v>
+        <v>10.12903308868408</v>
       </c>
       <c r="E23" t="n">
-        <v>10.84401416778564</v>
+        <v>10.49778461456299</v>
       </c>
       <c r="F23" t="n">
-        <v>8.701269149780273</v>
+        <v>9.600589752197266</v>
       </c>
       <c r="G23" t="n">
-        <v>58.42078344464063</v>
+        <v>62.97157546873284</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>5497.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>4348683734720633984</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>604756894497812864</t>
+          <t>4348683734720633984</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.2788630438553</v>
+        <v>288.6603590924468</v>
       </c>
       <c r="C24" t="n">
-        <v>-72.10361561215949</v>
+        <v>19.31957556139985</v>
       </c>
       <c r="D24" t="n">
-        <v>9.054858207702637</v>
+        <v>10.36974620819092</v>
       </c>
       <c r="E24" t="n">
-        <v>9.877593994140625</v>
+        <v>11.78960704803467</v>
       </c>
       <c r="F24" t="n">
-        <v>7.839743614196777</v>
+        <v>9.218977928161621</v>
       </c>
       <c r="G24" t="n">
-        <v>60.49050116267507</v>
+        <v>55.23721638452969</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4012.71</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.08057142</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.5873103</t>
+          <t>3853.2651</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6371169987426204800</t>
+          <t>4516199313384903936</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>4548562265603840768</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>327.2788630438553</v>
+        <v>258.9581327576004</v>
       </c>
       <c r="C25" t="n">
-        <v>-72.10361561215949</v>
+        <v>19.00008178285036</v>
       </c>
       <c r="D25" t="n">
-        <v>9.054858207702637</v>
+        <v>9.643589019775391</v>
       </c>
       <c r="E25" t="n">
-        <v>9.877593994140625</v>
+        <v>10.62963771820068</v>
       </c>
       <c r="F25" t="n">
-        <v>7.839743614196777</v>
+        <v>8.598058700561523</v>
       </c>
       <c r="G25" t="n">
-        <v>60.49050116267507</v>
+        <v>73.10602141993046</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4012.71</t>
+          <t>3671.2068</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.08057142</t>
+          <t>0.03414832</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.5873103</t>
+          <t>0.4769425</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>4548562265603840768</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6371169987426204928</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>6371169987426204928</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>327.2790186533686</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-72.10365039026789</v>
-      </c>
-      <c r="R25" t="n">
-        <v>9.191134452819824</v>
-      </c>
-      <c r="S25" t="n">
-        <v>9.856142044067383</v>
-      </c>
-      <c r="T25" t="n">
-        <v>7.82235860824585</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.033783435821533</v>
-      </c>
-      <c r="V25" t="n">
-        <v>60.77627967604099</v>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>4548562269906020352</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>4548562269906020352</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334.5689175424271</v>
+        <v>258.9576915317289</v>
       </c>
       <c r="C26" t="n">
-        <v>-53.62944421386503</v>
+        <v>19.00008846619465</v>
       </c>
       <c r="D26" t="n">
-        <v>9.186453819274902</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.083861351013184</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.604742050170898</v>
+        <v>11.94250583648682</v>
       </c>
       <c r="G26" t="n">
-        <v>72.96099165096082</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>5095.6333</t>
-        </is>
+        <v>76.57901615469025</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>4548562269906020352</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>334.5683625481559</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-53.62987304773594</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5.230531692504883</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5.541717052459717</v>
-      </c>
-      <c r="T26" t="n">
-        <v>4.735962390899658</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.8057546615600586</v>
-      </c>
-      <c r="V26" t="n">
-        <v>71.09384614454987</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>4548562269906020352</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>334.5689175424271</v>
+        <v>254.7899275418677</v>
       </c>
       <c r="C27" t="n">
-        <v>-53.62944421386503</v>
+        <v>20.97174535915752</v>
       </c>
       <c r="D27" t="n">
-        <v>9.186453819274902</v>
+        <v>11.35687637329102</v>
       </c>
       <c r="E27" t="n">
-        <v>9.083861351013184</v>
+        <v>12.66237354278564</v>
       </c>
       <c r="F27" t="n">
-        <v>7.604742050170898</v>
+        <v>10.00692653656006</v>
       </c>
       <c r="G27" t="n">
-        <v>72.96099165096082</v>
+        <v>56.18206271160806</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>3823.9333</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>6508776375902338944</t>
+          <t>4561968267282882688</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>4687511776265158400</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.5682592612844</v>
+        <v>17.32995738057579</v>
       </c>
       <c r="C28" t="n">
-        <v>-53.62978547970057</v>
+        <v>-72.20984060971971</v>
       </c>
       <c r="D28" t="n">
-        <v>5.210835456848145</v>
+        <v>11.87352085113525</v>
       </c>
       <c r="E28" t="n">
-        <v>5.558455944061279</v>
+        <v>13.15908527374268</v>
       </c>
       <c r="F28" t="n">
-        <v>4.759548187255859</v>
+        <v>10.74918746948242</v>
       </c>
       <c r="G28" t="n">
-        <v>71.34293388599237</v>
+        <v>51.90238250467226</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
+          <t>3335.7856</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.1821582</t>
+          <t>0.010535274</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.0838945</t>
+          <t>0.30660966</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>4687511776265158400</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>334.5683625481559</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>-53.62987304773594</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5.230531692504883</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.541717052459717</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4.735962390899658</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.8057546615600586</v>
-      </c>
-      <c r="V28" t="n">
-        <v>71.09384614454987</v>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>4687511780573305984</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>4837138408098045312</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>334.5682592612844</v>
+        <v>63.95379139264965</v>
       </c>
       <c r="C29" t="n">
-        <v>-53.62978547970057</v>
+        <v>-46.04034292186665</v>
       </c>
       <c r="D29" t="n">
-        <v>5.210835456848145</v>
+        <v>11.21990585327148</v>
       </c>
       <c r="E29" t="n">
-        <v>5.558455944061279</v>
+        <v>12.12822151184082</v>
       </c>
       <c r="F29" t="n">
-        <v>4.759548187255859</v>
+        <v>9.658695220947266</v>
       </c>
       <c r="G29" t="n">
-        <v>71.34293388599237</v>
+        <v>51.08454363200401</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
+          <t>3839.3333</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>4837138408098045312</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6508776375902338944</t>
-        </is>
+          <t>4837138408098432896</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>4837138408098432896</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>63.95408501441926</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-46.04037819828295</v>
+      </c>
+      <c r="R29" t="n">
+        <v>11.79192066192627</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12.08944988250732</v>
+      </c>
+      <c r="T29" t="n">
+        <v>9.631105422973633</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.458344459533691</v>
+      </c>
+      <c r="V29" t="n">
+        <v>52.53127551577403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>4941699593078093952</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>286.6054157588619</v>
+        <v>26.92866805191749</v>
       </c>
       <c r="C30" t="n">
-        <v>-37.06488085942344</v>
+        <v>-48.60282127305472</v>
       </c>
       <c r="D30" t="n">
-        <v>4.717123985290527</v>
+        <v>11.37154865264893</v>
       </c>
       <c r="E30" t="n">
-        <v>4.816995620727539</v>
+        <v>12.6948413848877</v>
       </c>
       <c r="F30" t="n">
-        <v>4.114394664764404</v>
+        <v>9.957320213317871</v>
       </c>
       <c r="G30" t="n">
-        <v>57.85828017971518</v>
+        <v>59.26364584447912</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6022.0</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2.852196</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1.5515323</t>
+          <t>3818.205</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>4941699593078093952</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>4941699593076520704</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>4975284381905517824</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>286.6053079615535</v>
+        <v>11.43603136528599</v>
       </c>
       <c r="C31" t="n">
-        <v>-37.06450354954132</v>
+        <v>-47.54865107475977</v>
       </c>
       <c r="D31" t="n">
-        <v>4.760257244110107</v>
+        <v>11.89260673522949</v>
       </c>
       <c r="E31" t="n">
-        <v>4.791435241699219</v>
+        <v>13.0518856048584</v>
       </c>
       <c r="F31" t="n">
-        <v>3.94169807434082</v>
+        <v>10.24972724914551</v>
       </c>
       <c r="G31" t="n">
-        <v>58.69555998807621</v>
+        <v>59.31016418754965</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5190.3335</t>
+          <t>3506.0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>4975284381905517824</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>4975284381907834752</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11.43574609211322</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-47.54851413287018</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.96830940246582</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.12998199462891</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10.30367851257324</v>
+      </c>
+      <c r="G32" t="n">
+        <v>73.47133745563414</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3488.03</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>61.83621486837872</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-24.48988981967711</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.63295078277588</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.86081886291504</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.11979484558105</v>
+      </c>
+      <c r="G33" t="n">
+        <v>54.10678393881965</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3709.0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>5089072531027887232</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5091025641634025984</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>62.32896483206782</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-20.41643992803905</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.992939949035645</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.285513877868652</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.515896797180176</v>
+      </c>
+      <c r="G34" t="n">
+        <v>51.14039636287707</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>6084.6665</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5091025641634025984</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>5091025641635400576</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>24.77121045213885</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-17.9477628246832</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.80610847473145</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13.30387020111084</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.349278450012207</v>
+      </c>
+      <c r="G35" t="n">
+        <v>372.1631202537232</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3295.75</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>142.6736805260494</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-40.46642826305888</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.674772262573242</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.775615692138672</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.180518627166748</v>
+      </c>
+      <c r="G36" t="n">
+        <v>54.60594737051395</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>6812.0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>8.295994</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2.0679383</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>142.6740032632142</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-40.466567086598</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.803853511810303</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.975138902664185</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.240525007247925</v>
+      </c>
+      <c r="G37" t="n">
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5443030196164951168</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>160.2899119129692</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-36.89640412005505</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.25908374786377</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.21074485778809</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8.162381172180176</v>
+      </c>
+      <c r="G38" t="n">
+        <v>63.97614315446016</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3795.6047</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.06885558</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.6068205</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>5443030196164951168</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>5443030200460964480</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>118.7298300988011</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-29.35117108926297</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.87730598449707</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13.18288803100586</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.19697570800781</v>
+      </c>
+      <c r="G39" t="n">
+        <v>80.35257033271708</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5600272629670698880</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>118.7298300988011</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-29.35117108926297</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.87730598449707</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13.18288803100586</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.19697570800781</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80.35257033271708</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5600272629670699008</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>123.7971795635656</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-23.73740281429323</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.04361057281494</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.61847877502441</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.841110229492188</v>
+      </c>
+      <c r="G41" t="n">
+        <v>101.2625444904345</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3189.2764</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.007910796</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.29134193</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5699418135764054016</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5707502295002824704</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>124.4137813189076</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-19.55895706828489</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11.74903583526611</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.22572135925293</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11.126784324646</v>
+      </c>
+      <c r="G42" t="n">
+        <v>69.09954759503835</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5011.5</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>5707502295002824704</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5707502295002824704</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5718806408412985856</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>115.8625623656557</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-17.09072821371808</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.28248977661133</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.87635803222656</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10.72959136962891</v>
+      </c>
+      <c r="G43" t="n">
+        <v>62.2645033788526</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>6192.0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>5718806408412985856</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>5718806408412985856</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5736464668224470400</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>133.5236644709698</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-13.12767858833451</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.38905048370361</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.22602462768555</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9.686737060546875</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.2603998138584</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4044.5203</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>5736464668224470400</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>5736464668224470400</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>5736464668224470400</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>133.5237124115487</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-13.12775945294399</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11.46639537811279</v>
+      </c>
+      <c r="S44" t="n">
+        <v>12.18689632415771</v>
+      </c>
+      <c r="T44" t="n">
+        <v>9.682451248168945</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.50444507598877</v>
+      </c>
+      <c r="V44" t="n">
+        <v>64.93545636698057</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G45" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>5853498713190524032</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G46" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>217.3923214720088</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-62.67607511676666</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8.984748840332031</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11.37311553955078</v>
+      </c>
+      <c r="T46" t="n">
+        <v>7.568535327911377</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.804580211639404</v>
+      </c>
+      <c r="V46" t="n">
+        <v>768.0665391873573</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>2829.3542</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0.0015221541</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0.16237111</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>263.8072213801677</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-48.6788427227423</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.283218383789062</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.49626731872559</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.218951225280762</v>
+      </c>
+      <c r="G47" t="n">
+        <v>103.3499876158996</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>3509.118</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.029565195</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.54734063</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>5946986063686470784</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5955305209191546112</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>264.2610245058087</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-44.32325190884921</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.570246696472168</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11.22336196899414</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.336091995239258</v>
+      </c>
+      <c r="G48" t="n">
+        <v>199.7031040708767</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>3155.8037</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.0082382895</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.30361992</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>5955305209191546112</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>5955305209177869952</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>132.676043587246</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.864454757536701</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.069389343261719</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.312304496765137</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7.628968715667725</v>
+      </c>
+      <c r="G49" t="n">
+        <v>56.18901160389031</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3689.1877</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.09200179</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.74259245</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>132.6760249411678</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>7.864124459558615</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9.315723419189453</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.586329460144043</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7.633227348327637</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.953102111816406</v>
+      </c>
+      <c r="V49" t="n">
+        <v>56.31319919991991</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>132.6760398348613</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.864122327596015</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.30428409576416</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.669934272766113</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.656069755554199</v>
+      </c>
+      <c r="G50" t="n">
+        <v>56.11548072384026</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>132.6760249411678</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.864124459558615</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9.315723419189453</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9.586329460144043</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7.633227348327637</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.953102111816406</v>
+      </c>
+      <c r="V50" t="n">
+        <v>56.31319919991991</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>598180818531355776</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>130.6867960295742</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.55428416381455</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11.87761497497559</v>
+      </c>
+      <c r="G51" t="n">
+        <v>61.76335287331371</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>598180818531355776</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>598180818531355776</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>130.6865172420918</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.5539723965289</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.946824073791504</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.887347221374512</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.971009254455566</v>
+      </c>
+      <c r="G52" t="n">
+        <v>64.3680016469628</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3873.0</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>598180818531355776</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>248.9143368530453</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-30.85924154787604</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.55023193359375</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.94421672821045</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10.41819190979004</v>
+      </c>
+      <c r="G53" t="n">
+        <v>51.51049019973517</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3180.8992</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.017104348</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.4312703</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6031475835680030592</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>134.269375638669</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.64555935981716</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.820775985717773</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10.84401416778564</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8.701269149780273</v>
+      </c>
+      <c r="G54" t="n">
+        <v>58.42078344464063</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3827.2</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>604756894497812864</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>272.8149060406134</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-78.98837669150387</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.21989345550537</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.95298194885254</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.84483814239502</v>
+      </c>
+      <c r="G55" t="n">
+        <v>85.83727732239498</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>4107.235</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6364795328244240256</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6368299918479525632</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>318.5525315671628</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-76.55796841526256</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.14993381500244</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.48196792602539</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.820988655090332</v>
+      </c>
+      <c r="G56" t="n">
+        <v>51.2127645838033</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>6368299918479525632</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6368299918477801728</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>327.2788630438553</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-72.10361561215949</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.054858207702637</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.877593994140625</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.839743614196777</v>
+      </c>
+      <c r="G57" t="n">
+        <v>60.49050116267507</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.08057142</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.5873103</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6371169987426204800</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>327.2788630438553</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-72.10361561215949</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.054858207702637</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.877593994140625</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.839743614196777</v>
+      </c>
+      <c r="G58" t="n">
+        <v>60.49050116267507</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.08057142</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.5873103</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>6371169987426204928</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>6371169987426204928</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>327.2790186533686</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-72.10365039026789</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9.191134452819824</v>
+      </c>
+      <c r="S58" t="n">
+        <v>9.856142044067383</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7.82235860824585</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.033783435821533</v>
+      </c>
+      <c r="V58" t="n">
+        <v>60.77627967604099</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6508776375900830592</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>334.5689175424271</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-53.62944421386503</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.186453819274902</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.083861351013184</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.604742050170898</v>
+      </c>
+      <c r="G59" t="n">
+        <v>72.96099165096082</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>6508776375900830592</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>334.5683625481559</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-53.62987304773594</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.230531692504883</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.541717052459717</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4.735962390899658</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.8057546615600586</v>
+      </c>
+      <c r="V59" t="n">
+        <v>71.09384614454987</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6508776375900830592</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>334.5689175424271</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-53.62944421386503</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.186453819274902</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.083861351013184</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7.604742050170898</v>
+      </c>
+      <c r="G60" t="n">
+        <v>72.96099165096082</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>6508776375900830592</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6508776375902338944</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>334.5682592612844</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-53.62978547970057</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.210835456848145</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.558455944061279</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.759548187255859</v>
+      </c>
+      <c r="G61" t="n">
+        <v>71.34293388599237</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>334.5683625481559</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-53.62987304773594</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5.230531692504883</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5.541717052459717</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4.735962390899658</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.8057546615600586</v>
+      </c>
+      <c r="V61" t="n">
+        <v>71.09384614454987</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>334.5682592612844</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-53.62978547970057</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.210835456848145</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.558455944061279</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.759548187255859</v>
+      </c>
+      <c r="G62" t="n">
+        <v>71.34293388599237</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>6508776375902338944</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>290.203985560264</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-45.57070375122545</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10.74048519134521</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.5438871383667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.491452217102051</v>
+      </c>
+      <c r="G63" t="n">
+        <v>169.0921113093585</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3302.0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>6663600360560306176</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6719152945029845376</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>286.6054157588619</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-37.06488085942344</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.717123985290527</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.816995620727539</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.114394664764404</v>
+      </c>
+      <c r="G64" t="n">
+        <v>57.85828017971518</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>6022.0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2.852196</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.5515323</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>6719152945029845376</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>6719152945032456832</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>6719152945032456832</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>286.6053079615535</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-37.06450354954132</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.760257244110107</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.791435241699219</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.94169807434082</v>
+      </c>
+      <c r="G65" t="n">
+        <v>58.69555998807621</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>5190.3335</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>6719152945032456832</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6719152945032456832</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6725832095922016256</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>273.3347176998794</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-39.84393199705262</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.7391471862793</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.12708282470703</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.59965991973877</v>
+      </c>
+      <c r="G66" t="n">
+        <v>53.01351949009779</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3805.4465</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>6725832095922016256</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6725829145307027840</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>6792436799475128960</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B67" t="n">
         <v>310.4642932425458</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C67" t="n">
         <v>-32.43697891884239</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D67" t="n">
         <v>9.555359840393066</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E67" t="n">
         <v>11.24395275115967</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F67" t="n">
         <v>8.18243408203125</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G67" t="n">
         <v>101.1982497400386</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>4267.03</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>6792436799475128960</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>6792436803774310144</t>
         </is>

--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -428,7 +428,8 @@
   <dimension ref="A1:AC593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AC593"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -39905,6 +39918,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:AC593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -39918,6 +39905,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/removed_rows.xlsx
+++ b/results/removed_rows.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AC593"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -39905,6 +39918,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>